--- a/Raw_Data/AP23_grid_blank.xlsx
+++ b/Raw_Data/AP23_grid_blank.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tayrlindsay/Desktop/GITHUB/TL_Astrangia/Raw_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CDE7915-D832-AC46-8CF4-74E967A9DE5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520C53FA-48EE-5842-94CE-DA50502F8676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14180" xr2:uid="{EC8B731B-E3B0-D44A-A47B-062F32028307}"/>
+    <workbookView xWindow="80" yWindow="500" windowWidth="16520" windowHeight="14120" xr2:uid="{EC8B731B-E3B0-D44A-A47B-062F32028307}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>spot</t>
   </si>
@@ -114,6 +114,12 @@
   </si>
   <si>
     <t>S5</t>
+  </si>
+  <si>
+    <t>dead</t>
+  </si>
+  <si>
+    <t>empty</t>
   </si>
 </sst>
 </file>
@@ -468,7 +474,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -518,6 +524,9 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -548,6 +557,9 @@
       <c r="A8" t="s">
         <v>7</v>
       </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -578,6 +590,9 @@
       <c r="A14" t="s">
         <v>13</v>
       </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -589,9 +604,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
